--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.386</v>
+        <v>-1.871</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.017</v>
+        <v>-0.61</v>
       </c>
       <c r="D4" t="n">
-        <v>117.68</v>
+        <v>-67.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.033</v>
+        <v>0.003</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.12</v>
+        <v>0.035</v>
       </c>
       <c r="D5" t="n">
-        <v>263.64</v>
+        <v>1066.67</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.591</v>
+        <v>7.682</v>
       </c>
       <c r="C6" t="n">
-        <v>12.782</v>
+        <v>4.309</v>
       </c>
       <c r="D6" t="n">
-        <v>68.38</v>
+        <v>-43.91</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.486</v>
+        <v>0.531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.867</v>
+        <v>0.274</v>
       </c>
       <c r="D7" t="n">
-        <v>78.40000000000001</v>
+        <v>-48.4</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.887</v>
+        <v>18.099</v>
       </c>
       <c r="C8" t="n">
-        <v>23.436</v>
+        <v>14.282</v>
       </c>
       <c r="D8" t="n">
-        <v>31.02</v>
+        <v>-21.09</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.018</v>
+        <v>7.25</v>
       </c>
       <c r="C9" t="n">
-        <v>11.156</v>
+        <v>3.768</v>
       </c>
       <c r="D9" t="n">
-        <v>58.96</v>
+        <v>-48.03</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.054</v>
+        <v>70.795</v>
       </c>
       <c r="C10" t="n">
-        <v>182.284</v>
+        <v>29.964</v>
       </c>
       <c r="D10" t="n">
-        <v>142.87</v>
+        <v>-57.67</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.474</v>
+        <v>0.546</v>
       </c>
       <c r="C11" t="n">
-        <v>3.069</v>
+        <v>0.147</v>
       </c>
       <c r="D11" t="n">
-        <v>547.47</v>
+        <v>-73.08</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.447</v>
+        <v>-4.988</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.801</v>
+        <v>-1.535</v>
       </c>
       <c r="D12" t="n">
-        <v>184.33</v>
+        <v>-69.23</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.663</v>
+        <v>8.414</v>
       </c>
       <c r="C13" t="n">
-        <v>13.501</v>
+        <v>5.474</v>
       </c>
       <c r="D13" t="n">
-        <v>55.85</v>
+        <v>-34.94</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.533528029918671</v>
+        <v>3.602282660348075</v>
       </c>
       <c r="C4" t="n">
-        <v>5.599468022584915</v>
+        <v>4.576721526327587</v>
       </c>
       <c r="D4" t="n">
-        <v>1.19</v>
+        <v>27.05</v>
       </c>
       <c r="E4" t="n">
-        <v>2.316957042214751</v>
+        <v>0.8532013973042487</v>
       </c>
       <c r="F4" t="n">
-        <v>1.147971053441924</v>
+        <v>1.121819034244754</v>
       </c>
       <c r="G4" t="n">
-        <v>-50.45</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.737</v>
+        <v>0.755</v>
       </c>
       <c r="D5" t="n">
-        <v>-31.51</v>
+        <v>-29.83</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.874719501992539</v>
+        <v>2.715726276662861</v>
       </c>
       <c r="C6" t="n">
-        <v>2.894290104100766</v>
+        <v>2.150972029539493</v>
       </c>
       <c r="D6" t="n">
-        <v>-25.3</v>
+        <v>-20.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.294768440711621</v>
+        <v>0.5069033621074486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8481257163064402</v>
+        <v>0.3496594962188025</v>
       </c>
       <c r="G6" t="n">
-        <v>-34.5</v>
+        <v>-31.02</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.871</v>
+        <v>-1.65</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.61</v>
+        <v>-0.058</v>
       </c>
       <c r="D4" t="n">
-        <v>-67.40000000000001</v>
+        <v>-96.48</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.035</v>
+        <v>0.006</v>
       </c>
       <c r="D5" t="n">
-        <v>1066.67</v>
+        <v>-154.55</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.682</v>
+        <v>7.091</v>
       </c>
       <c r="C6" t="n">
-        <v>4.309</v>
+        <v>2.832</v>
       </c>
       <c r="D6" t="n">
-        <v>-43.91</v>
+        <v>-60.06</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.531</v>
+        <v>0.486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.274</v>
+        <v>0.183</v>
       </c>
       <c r="D7" t="n">
-        <v>-48.4</v>
+        <v>-62.35</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.099</v>
+        <v>15.941</v>
       </c>
       <c r="C8" t="n">
-        <v>14.282</v>
+        <v>12.297</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.09</v>
+        <v>-22.86</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.25</v>
+        <v>6.821</v>
       </c>
       <c r="C9" t="n">
-        <v>3.768</v>
+        <v>2.011</v>
       </c>
       <c r="D9" t="n">
-        <v>-48.03</v>
+        <v>-70.52</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.795</v>
+        <v>62.233</v>
       </c>
       <c r="C10" t="n">
-        <v>29.964</v>
+        <v>14.782</v>
       </c>
       <c r="D10" t="n">
-        <v>-57.67</v>
+        <v>-76.25</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.546</v>
+        <v>0.448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.147</v>
+        <v>0.057</v>
       </c>
       <c r="D11" t="n">
-        <v>-73.08</v>
+        <v>-87.28</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.988</v>
+        <v>-4.264</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.535</v>
+        <v>-0.25</v>
       </c>
       <c r="D12" t="n">
-        <v>-69.23</v>
+        <v>-94.14</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.414</v>
+        <v>7.889</v>
       </c>
       <c r="C13" t="n">
-        <v>5.474</v>
+        <v>3.845</v>
       </c>
       <c r="D13" t="n">
-        <v>-34.94</v>
+        <v>-51.26</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.602282660348075</v>
+        <v>2.806703238260178</v>
       </c>
       <c r="C4" t="n">
-        <v>4.576721526327587</v>
+        <v>3.408757368723551</v>
       </c>
       <c r="D4" t="n">
-        <v>27.05</v>
+        <v>21.45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8532013973042487</v>
+        <v>0.7307135843526621</v>
       </c>
       <c r="F4" t="n">
-        <v>1.121819034244754</v>
+        <v>0.3723781556697766</v>
       </c>
       <c r="G4" t="n">
-        <v>31.48</v>
+        <v>-49.04</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.755</v>
+        <v>0.923</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.83</v>
+        <v>-14.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.715726276662861</v>
+        <v>3.783581098419186</v>
       </c>
       <c r="C6" t="n">
-        <v>2.150972029539493</v>
+        <v>2.932495469031893</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.8</v>
+        <v>-22.49</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5069033621074486</v>
+        <v>0.8521883965076896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3496594962188025</v>
+        <v>0.2992383420759598</v>
       </c>
       <c r="G6" t="n">
-        <v>-31.02</v>
+        <v>-64.89</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-static/2_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
